--- a/tests/files/MarkdownReprDisplay.ipynb.xlsx
+++ b/tests/files/MarkdownReprDisplay.ipynb.xlsx
@@ -37,13 +37,13 @@
     <t xml:space="preserve">User: </t>
   </si>
   <si>
-    <t>ykikturpng</t>
+    <t>mynbiqpmzj</t>
   </si>
   <si>
     <t xml:space="preserve">Password: </t>
   </si>
   <si>
-    <t>fnpsgdkxcmghxckcxjuc</t>
+    <t>plsgqejeydtzirwztejd</t>
   </si>
   <si>
     <t>3</t>

--- a/tests/files/MarkdownReprDisplay.ipynb.xlsx
+++ b/tests/files/MarkdownReprDisplay.ipynb.xlsx
@@ -59,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +69,14 @@
     </font>
     <font>
       <sz val="30"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -95,9 +103,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,7 +434,7 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
@@ -433,7 +442,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
